--- a/biology/Botanique/Charles_Fortuné_Willermoz/Charles_Fortuné_Willermoz.xlsx
+++ b/biology/Botanique/Charles_Fortuné_Willermoz/Charles_Fortuné_Willermoz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Fortun%C3%A9_Willermoz</t>
+          <t>Charles_Fortuné_Willermoz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Fortuné Willermoz, né le 6 mars 1804 à Coligny et mort le 6 octobre 1879 à Champagne-au-Mont-d'Or, est un arboriculteur pomologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Fortun%C3%A9_Willermoz</t>
+          <t>Charles_Fortuné_Willermoz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Fortuné est né le 6 mars 1804 à Coligny dans l'Ain[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Fortuné est né le 6 mars 1804 à Coligny dans l'Ain.
 Il fonde l'école pratique d'horticulture d'Écully.
-Il est directeur de l'école d'horticulture du Rhône, et secrétaire du congrès pomologique du Rhône[1].
-Il meurt le 6 octobre 1879 à Champagne-au-Mont-d'Or[1].
+Il est directeur de l'école d'horticulture du Rhône, et secrétaire du congrès pomologique du Rhône.
+Il meurt le 6 octobre 1879 à Champagne-au-Mont-d'Or.
 </t>
         </is>
       </c>
